--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>60</v>
+      </c>
       <c r="L12" t="n">
         <v>198.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>199</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>50</v>
+      </c>
       <c r="L14" t="n">
         <v>199.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>199.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>8</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20</v>
+      </c>
       <c r="L16" t="n">
         <v>199.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>8</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>199.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>199.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>12</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L19" t="n">
         <v>199.2</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>13</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>199.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>14</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L21" t="n">
         <v>199.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>14</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>199.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>33.33333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L23" t="n">
         <v>199.4</v>
@@ -1466,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>199.6</v>
@@ -1515,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L25" t="n">
         <v>199.8</v>
@@ -1564,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L26" t="n">
         <v>200.2</v>
@@ -1613,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="K27" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>200.6</v>
@@ -1662,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>200.8</v>
@@ -1711,7 +1733,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>28.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>201.3</v>
@@ -1760,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="K30" t="n">
-        <v>28.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>201.7</v>
@@ -1809,7 +1831,7 @@
         <v>17</v>
       </c>
       <c r="K31" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>202</v>
@@ -1860,7 +1882,7 @@
         <v>17</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>202.3</v>
@@ -1911,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="K33" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>202.5</v>
@@ -1962,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="K34" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>202.6</v>
@@ -2013,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="K35" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>202.6</v>
@@ -2166,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="K38" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>203.2</v>
@@ -2217,7 +2239,7 @@
         <v>20</v>
       </c>
       <c r="K39" t="n">
-        <v>75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>203.3</v>
@@ -2268,7 +2290,7 @@
         <v>20</v>
       </c>
       <c r="K40" t="n">
-        <v>71.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>203.4</v>
@@ -2319,7 +2341,7 @@
         <v>20</v>
       </c>
       <c r="K41" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>203.5</v>
@@ -2370,7 +2392,7 @@
         <v>21</v>
       </c>
       <c r="K42" t="n">
-        <v>71.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="L42" t="n">
         <v>203.7</v>
@@ -2421,7 +2443,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>71.42857142857143</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>204</v>
@@ -2472,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="K44" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>204.3</v>
@@ -2523,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="K45" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>204.6</v>
@@ -2574,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L46" t="n">
         <v>204.3</v>
@@ -2625,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>204.3</v>
@@ -2676,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L48" t="n">
         <v>204.4</v>
@@ -2727,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="K49" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L49" t="n">
         <v>204.5</v>
@@ -2778,7 +2800,7 @@
         <v>31</v>
       </c>
       <c r="K50" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L50" t="n">
         <v>204.6</v>
@@ -2829,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="K51" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>204.7</v>
@@ -2880,7 +2902,7 @@
         <v>32</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>204.8</v>
@@ -2931,7 +2953,7 @@
         <v>33</v>
       </c>
       <c r="K53" t="n">
-        <v>12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L53" t="n">
         <v>204.7</v>
@@ -2982,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="K54" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>204.6</v>
@@ -3033,7 +3055,7 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L55" t="n">
         <v>204.1</v>

--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,130 +394,102 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E2" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F2" t="n">
-        <v>1447.8208</v>
+        <v>2539423.7193</v>
       </c>
       <c r="G2" t="n">
-        <v>194.5333333333333</v>
+        <v>-17401.49</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D3" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F3" t="n">
-        <v>53.1792</v>
+        <v>2536968.75</v>
       </c>
       <c r="G3" t="n">
-        <v>194.5833333333333</v>
+        <v>-17401.49</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -525,2554 +497,3705 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C4" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2565006</v>
       </c>
       <c r="G4" t="n">
-        <v>194.6666666666667</v>
+        <v>-17401.49</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C5" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D5" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E5" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F5" t="n">
-        <v>1633.1882</v>
+        <v>874000</v>
       </c>
       <c r="G5" t="n">
-        <v>194.75</v>
+        <v>-17401.49</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D6" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E6" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>21372.9523</v>
       </c>
       <c r="G6" t="n">
-        <v>194.85</v>
+        <v>-17401.49</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D7" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E7" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>911800</v>
       </c>
       <c r="G7" t="n">
-        <v>194.95</v>
+        <v>-17401.49</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C8" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D8" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E8" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>2566200</v>
       </c>
       <c r="G8" t="n">
-        <v>195.05</v>
+        <v>-17401.49</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C9" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D9" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E9" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F9" t="n">
-        <v>474.9902</v>
+        <v>2585000</v>
       </c>
       <c r="G9" t="n">
-        <v>195.15</v>
+        <v>-17401.49</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C10" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D10" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E10" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>2519200</v>
       </c>
       <c r="G10" t="n">
-        <v>195.25</v>
+        <v>-17401.49</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E11" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F11" t="n">
-        <v>339.345</v>
+        <v>2538000</v>
       </c>
       <c r="G11" t="n">
-        <v>195.3666666666667</v>
+        <v>-17401.49</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C12" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E12" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F12" t="n">
-        <v>5.2083</v>
+        <v>2491000</v>
       </c>
       <c r="G12" t="n">
-        <v>195.4666666666667</v>
+        <v>-17401.49</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>60</v>
-      </c>
-      <c r="L12" t="n">
-        <v>198.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D13" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E13" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F13" t="n">
-        <v>10.1757</v>
+        <v>2519200</v>
       </c>
       <c r="G13" t="n">
-        <v>195.5833333333333</v>
+        <v>-17401.49</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>50</v>
-      </c>
-      <c r="L13" t="n">
-        <v>199</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D14" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E14" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F14" t="n">
-        <v>19.5194</v>
+        <v>2500400</v>
       </c>
       <c r="G14" t="n">
-        <v>195.7</v>
+        <v>-17401.49</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50</v>
-      </c>
-      <c r="L14" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C15" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E15" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F15" t="n">
-        <v>481.2232</v>
+        <v>2556800</v>
       </c>
       <c r="G15" t="n">
-        <v>195.8166666666667</v>
+        <v>-17401.49</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D16" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E16" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1313</v>
+        <v>1168363</v>
       </c>
       <c r="G16" t="n">
-        <v>195.9</v>
+        <v>-17401.49</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C17" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D17" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E17" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F17" t="n">
-        <v>218.2297</v>
+        <v>429.4</v>
       </c>
       <c r="G17" t="n">
-        <v>195.9833333333333</v>
+        <v>-17401.49</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L17" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C18" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E18" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>7788.7018</v>
       </c>
       <c r="G18" t="n">
-        <v>196.1</v>
+        <v>-25190.1918</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="K18" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L18" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E19" t="n">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F19" t="n">
-        <v>807.274</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>196.2</v>
+        <v>-25190.1918</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L19" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C20" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D20" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E20" t="n">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F20" t="n">
-        <v>303</v>
+        <v>5.985</v>
       </c>
       <c r="G20" t="n">
-        <v>196.3166666666667</v>
+        <v>-25196.1768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="K20" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L20" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D21" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F21" t="n">
-        <v>166.72</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>196.4666666666667</v>
+        <v>-23196.1768</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L21" t="n">
-        <v>199.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>198.75</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C22" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D22" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F22" t="n">
-        <v>51.5098</v>
+        <v>1628.0486</v>
       </c>
       <c r="G22" t="n">
-        <v>196.6</v>
+        <v>-24824.2254</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>199.3</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>198.95</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C23" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D23" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E23" t="n">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F23" t="n">
-        <v>4156.7904</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>196.7666666666667</v>
+        <v>-24822.2254</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="K23" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L23" t="n">
-        <v>199.4</v>
+        <v>192</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>199.2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C24" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D24" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E24" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F24" t="n">
-        <v>4299.349</v>
+        <v>19.0974</v>
       </c>
       <c r="G24" t="n">
-        <v>196.8833333333333</v>
+        <v>-24822.2254</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>199.6</v>
+        <v>192</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>199.4</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C25" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D25" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E25" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F25" t="n">
-        <v>7351.887</v>
+        <v>9.524800000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>197</v>
+        <v>-24831.75019999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16</v>
-      </c>
-      <c r="K25" t="n">
-        <v>50</v>
-      </c>
-      <c r="L25" t="n">
-        <v>199.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>199.6</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C26" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D26" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E26" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F26" t="n">
-        <v>3134.2252</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>197.1666666666667</v>
+        <v>-24830.75019999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16</v>
-      </c>
-      <c r="K26" t="n">
-        <v>50</v>
-      </c>
-      <c r="L26" t="n">
-        <v>200.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>199.75</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C27" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D27" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E27" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F27" t="n">
-        <v>1242.3859</v>
+        <v>2.4102</v>
       </c>
       <c r="G27" t="n">
-        <v>197.2833333333333</v>
+        <v>-24830.75019999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>16</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>200.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>199.9</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C28" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D28" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E28" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F28" t="n">
-        <v>7.1534</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>197.4</v>
+        <v>-24830.75019999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>16</v>
-      </c>
-      <c r="K28" t="n">
-        <v>100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>200.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>200.05</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C29" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D29" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E29" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F29" t="n">
-        <v>9640.4614</v>
+        <v>9.524800000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>197.5333333333333</v>
+        <v>-24840.27499999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>17</v>
-      </c>
-      <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>201.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>200.25</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C30" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D30" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E30" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F30" t="n">
-        <v>7808.7743</v>
+        <v>3000</v>
       </c>
       <c r="G30" t="n">
-        <v>197.7</v>
+        <v>-21840.27499999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>201.7</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>200.45</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C31" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D31" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E31" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F31" t="n">
-        <v>3870.9472</v>
+        <v>9.524800000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>197.8333333333333</v>
+        <v>-21849.79979999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>199.8333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C32" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D32" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E32" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F32" t="n">
-        <v>8363.944100000001</v>
+        <v>466.321</v>
       </c>
       <c r="G32" t="n">
-        <v>198</v>
+        <v>-21849.79979999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>202.3</v>
+        <v>193</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>200.8</v>
-      </c>
-      <c r="N32" t="n">
-        <v>200.0666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C33" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D33" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E33" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F33" t="n">
-        <v>737.6794</v>
+        <v>347.3005</v>
       </c>
       <c r="G33" t="n">
-        <v>198.1666666666667</v>
+        <v>-21849.79979999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>17</v>
-      </c>
-      <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>202.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>200.95</v>
-      </c>
-      <c r="N33" t="n">
-        <v>200.3</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C34" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D34" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F34" t="n">
-        <v>339.6162</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>198.3333333333333</v>
+        <v>-21847.79979999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>17</v>
-      </c>
-      <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>202.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>200.4666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C35" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D35" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E35" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F35" t="n">
-        <v>1090.3983</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>198.45</v>
+        <v>-22847.79979999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>18</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>202.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>201.2</v>
-      </c>
-      <c r="N35" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C36" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D36" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E36" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>15.4</v>
       </c>
       <c r="G36" t="n">
-        <v>198.6166666666667</v>
+        <v>-22832.39979999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>20</v>
-      </c>
-      <c r="K36" t="n">
-        <v>50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>202.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>201.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>200.7666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C37" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D37" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E37" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F37" t="n">
-        <v>1282.7892</v>
+        <v>382.4964</v>
       </c>
       <c r="G37" t="n">
-        <v>198.7666666666667</v>
+        <v>-22832.39979999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" t="n">
-        <v>50</v>
-      </c>
-      <c r="L37" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="N37" t="n">
-        <v>200.9333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C38" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D38" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E38" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F38" t="n">
-        <v>2338.8088</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>198.9166666666667</v>
+        <v>-22856.39979999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>20</v>
-      </c>
-      <c r="K38" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>203.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>202</v>
-      </c>
-      <c r="N38" t="n">
-        <v>201.1</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C39" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D39" t="n">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E39" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F39" t="n">
-        <v>8.0686</v>
+        <v>1771</v>
       </c>
       <c r="G39" t="n">
-        <v>199.0833333333333</v>
+        <v>-24627.39979999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>20</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>203.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>202.3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>201.2666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C40" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D40" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E40" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F40" t="n">
-        <v>1636.2303</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>199.3166666666667</v>
+        <v>-24625.39979999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>203.4</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>202.55</v>
-      </c>
-      <c r="N40" t="n">
-        <v>201.4333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C41" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D41" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E41" t="n">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F41" t="n">
-        <v>3703.0425</v>
+        <v>725.7689</v>
       </c>
       <c r="G41" t="n">
-        <v>199.4666666666667</v>
+        <v>-23899.63089999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>203.5</v>
+        <v>190</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>202.75</v>
-      </c>
-      <c r="N41" t="n">
-        <v>201.5666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C42" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D42" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E42" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F42" t="n">
-        <v>5821.8776</v>
+        <v>3399.394</v>
       </c>
       <c r="G42" t="n">
-        <v>199.6</v>
+        <v>-23899.63089999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>50</v>
-      </c>
-      <c r="L42" t="n">
-        <v>203.7</v>
+        <v>190</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>203</v>
-      </c>
-      <c r="N42" t="n">
-        <v>201.7666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C43" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D43" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E43" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F43" t="n">
-        <v>57.1504</v>
+        <v>127.4645</v>
       </c>
       <c r="G43" t="n">
-        <v>199.75</v>
+        <v>-23899.63089999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>22</v>
-      </c>
-      <c r="K43" t="n">
-        <v>60</v>
-      </c>
-      <c r="L43" t="n">
-        <v>204</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>203.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>201.9666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C44" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D44" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E44" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F44" t="n">
-        <v>21.5631</v>
+        <v>473</v>
       </c>
       <c r="G44" t="n">
-        <v>199.9</v>
+        <v>-23899.63089999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>22</v>
-      </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>204.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>203.45</v>
-      </c>
-      <c r="N44" t="n">
-        <v>202.1666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C45" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D45" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E45" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F45" t="n">
-        <v>2200.0487</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>200.0333333333333</v>
+        <v>-23898.63089999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>23</v>
-      </c>
-      <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>204.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>202.3333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C46" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D46" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E46" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F46" t="n">
-        <v>103.9416</v>
+        <v>1256.1363</v>
       </c>
       <c r="G46" t="n">
-        <v>200.0833333333333</v>
+        <v>-25154.76719999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>27</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L46" t="n">
-        <v>204.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>203.55</v>
-      </c>
-      <c r="N46" t="n">
-        <v>202.4333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C47" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D47" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E47" t="n">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F47" t="n">
-        <v>103.942</v>
+        <v>2957.5384</v>
       </c>
       <c r="G47" t="n">
-        <v>200.2166666666667</v>
+        <v>-28112.30559999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>30</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>204.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>203.65</v>
-      </c>
-      <c r="N47" t="n">
-        <v>202.6333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C48" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D48" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E48" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>42.4616</v>
       </c>
       <c r="G48" t="n">
-        <v>200.3833333333333</v>
+        <v>-28112.30559999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="K48" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L48" t="n">
-        <v>204.4</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>203.8</v>
-      </c>
-      <c r="N48" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C49" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D49" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E49" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F49" t="n">
-        <v>4066.8693</v>
+        <v>696</v>
       </c>
       <c r="G49" t="n">
-        <v>200.55</v>
+        <v>-27416.30559999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L49" t="n">
-        <v>204.5</v>
+        <v>195</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>203.9</v>
-      </c>
-      <c r="N49" t="n">
-        <v>203.0333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C50" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D50" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E50" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F50" t="n">
-        <v>514.8363000000001</v>
+        <v>255.2131</v>
       </c>
       <c r="G50" t="n">
-        <v>200.6833333333333</v>
+        <v>-27416.30559999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="K50" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L50" t="n">
-        <v>204.6</v>
+        <v>195</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>204</v>
-      </c>
-      <c r="N50" t="n">
-        <v>203.2333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C51" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D51" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E51" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F51" t="n">
-        <v>2194.5486</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>200.8166666666667</v>
+        <v>-27416.30559999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>31</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>204.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>204.1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>203.4</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C52" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D52" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E52" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>40.60913705</v>
       </c>
       <c r="G52" t="n">
-        <v>200.9666666666667</v>
+        <v>-27416.30559999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>32</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>204.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>204.25</v>
-      </c>
-      <c r="N52" t="n">
-        <v>203.6</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D53" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E53" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F53" t="n">
-        <v>1536.5665</v>
+        <v>505</v>
       </c>
       <c r="G53" t="n">
-        <v>201.1</v>
+        <v>-27921.30559999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>33</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L53" t="n">
-        <v>204.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>204.35</v>
-      </c>
-      <c r="N53" t="n">
-        <v>203.7333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C54" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D54" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E54" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F54" t="n">
-        <v>7493.6763</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>201.25</v>
+        <v>-27890.30559999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>33</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>204.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>204.45</v>
-      </c>
-      <c r="N54" t="n">
-        <v>203.8333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>197</v>
+      </c>
+      <c r="C55" t="n">
+        <v>197</v>
+      </c>
+      <c r="D55" t="n">
+        <v>197</v>
+      </c>
+      <c r="E55" t="n">
+        <v>197</v>
+      </c>
+      <c r="F55" t="n">
+        <v>52.5989</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-27890.30559999999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>196</v>
+      </c>
+      <c r="C56" t="n">
+        <v>196</v>
+      </c>
+      <c r="D56" t="n">
+        <v>196</v>
+      </c>
+      <c r="E56" t="n">
+        <v>196</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-27990.30559999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>197</v>
+      </c>
+      <c r="C57" t="n">
+        <v>198</v>
+      </c>
+      <c r="D57" t="n">
+        <v>198</v>
+      </c>
+      <c r="E57" t="n">
+        <v>197</v>
+      </c>
+      <c r="F57" t="n">
+        <v>30</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-27960.30559999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>198</v>
+      </c>
+      <c r="C58" t="n">
+        <v>198</v>
+      </c>
+      <c r="D58" t="n">
+        <v>198</v>
+      </c>
+      <c r="E58" t="n">
+        <v>198</v>
+      </c>
+      <c r="F58" t="n">
+        <v>424.3434</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-27960.30559999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>198</v>
+      </c>
+      <c r="C59" t="n">
+        <v>198</v>
+      </c>
+      <c r="D59" t="n">
+        <v>198</v>
+      </c>
+      <c r="E59" t="n">
+        <v>198</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-27960.30559999999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>198</v>
+      </c>
+      <c r="C60" t="n">
+        <v>198</v>
+      </c>
+      <c r="D60" t="n">
+        <v>198</v>
+      </c>
+      <c r="E60" t="n">
+        <v>198</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-27960.30559999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>197</v>
+      </c>
+      <c r="C61" t="n">
+        <v>196</v>
+      </c>
+      <c r="D61" t="n">
+        <v>197</v>
+      </c>
+      <c r="E61" t="n">
+        <v>196</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1447.8208</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-29408.12639999999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>196</v>
+      </c>
+      <c r="C62" t="n">
+        <v>196</v>
+      </c>
+      <c r="D62" t="n">
+        <v>196</v>
+      </c>
+      <c r="E62" t="n">
+        <v>196</v>
+      </c>
+      <c r="F62" t="n">
+        <v>53.1792</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-29408.12639999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>198</v>
+      </c>
+      <c r="C63" t="n">
+        <v>198</v>
+      </c>
+      <c r="D63" t="n">
+        <v>198</v>
+      </c>
+      <c r="E63" t="n">
+        <v>198</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-29407.12639999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>198</v>
+      </c>
+      <c r="C64" t="n">
+        <v>198</v>
+      </c>
+      <c r="D64" t="n">
+        <v>198</v>
+      </c>
+      <c r="E64" t="n">
+        <v>198</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1633.1882</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-29407.12639999999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>199</v>
+      </c>
+      <c r="C65" t="n">
+        <v>199</v>
+      </c>
+      <c r="D65" t="n">
+        <v>199</v>
+      </c>
+      <c r="E65" t="n">
+        <v>199</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-29406.12639999999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>199</v>
+      </c>
+      <c r="C66" t="n">
+        <v>199</v>
+      </c>
+      <c r="D66" t="n">
+        <v>199</v>
+      </c>
+      <c r="E66" t="n">
+        <v>199</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-29406.12639999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>199</v>
+      </c>
+      <c r="C67" t="n">
+        <v>199</v>
+      </c>
+      <c r="D67" t="n">
+        <v>199</v>
+      </c>
+      <c r="E67" t="n">
+        <v>199</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-29406.12639999999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>199</v>
+      </c>
+      <c r="C68" t="n">
+        <v>199</v>
+      </c>
+      <c r="D68" t="n">
+        <v>199</v>
+      </c>
+      <c r="E68" t="n">
+        <v>199</v>
+      </c>
+      <c r="F68" t="n">
+        <v>474.9902</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-29406.12639999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>199</v>
+      </c>
+      <c r="C69" t="n">
+        <v>199</v>
+      </c>
+      <c r="D69" t="n">
+        <v>199</v>
+      </c>
+      <c r="E69" t="n">
+        <v>199</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-29406.12639999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>200</v>
+      </c>
+      <c r="C70" t="n">
+        <v>200</v>
+      </c>
+      <c r="D70" t="n">
+        <v>200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>200</v>
+      </c>
+      <c r="F70" t="n">
+        <v>339.345</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-29066.78139999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>199</v>
+      </c>
+      <c r="C71" t="n">
+        <v>199</v>
+      </c>
+      <c r="D71" t="n">
+        <v>199</v>
+      </c>
+      <c r="E71" t="n">
+        <v>199</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.2083</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-29071.98969999999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>200</v>
+      </c>
+      <c r="C72" t="n">
+        <v>200</v>
+      </c>
+      <c r="D72" t="n">
+        <v>200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.1757</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-29061.81399999999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>200</v>
+      </c>
+      <c r="C73" t="n">
+        <v>200</v>
+      </c>
+      <c r="D73" t="n">
+        <v>200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>200</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19.5194</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-29061.81399999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>200</v>
+      </c>
+      <c r="C74" t="n">
+        <v>200</v>
+      </c>
+      <c r="D74" t="n">
+        <v>200</v>
+      </c>
+      <c r="E74" t="n">
+        <v>200</v>
+      </c>
+      <c r="F74" t="n">
+        <v>481.2232</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-29061.81399999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>198</v>
+      </c>
+      <c r="C75" t="n">
+        <v>198</v>
+      </c>
+      <c r="D75" t="n">
+        <v>198</v>
+      </c>
+      <c r="E75" t="n">
+        <v>198</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.1313</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-29062.94529999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>198</v>
+      </c>
+      <c r="C76" t="n">
+        <v>198</v>
+      </c>
+      <c r="D76" t="n">
+        <v>198</v>
+      </c>
+      <c r="E76" t="n">
+        <v>198</v>
+      </c>
+      <c r="F76" t="n">
+        <v>218.2297</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-29062.94529999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>200</v>
+      </c>
+      <c r="C77" t="n">
+        <v>200</v>
+      </c>
+      <c r="D77" t="n">
+        <v>200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>200</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-29061.94529999999</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>198</v>
+      </c>
+      <c r="C78" t="n">
+        <v>198</v>
+      </c>
+      <c r="D78" t="n">
+        <v>198</v>
+      </c>
+      <c r="E78" t="n">
+        <v>198</v>
+      </c>
+      <c r="F78" t="n">
+        <v>807.274</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-29869.21929999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>199</v>
+      </c>
+      <c r="C79" t="n">
+        <v>199</v>
+      </c>
+      <c r="D79" t="n">
+        <v>199</v>
+      </c>
+      <c r="E79" t="n">
+        <v>199</v>
+      </c>
+      <c r="F79" t="n">
+        <v>303</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-29566.21929999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>200</v>
+      </c>
+      <c r="C80" t="n">
+        <v>200</v>
+      </c>
+      <c r="D80" t="n">
+        <v>200</v>
+      </c>
+      <c r="E80" t="n">
+        <v>200</v>
+      </c>
+      <c r="F80" t="n">
+        <v>166.72</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-29399.49929999999</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>200</v>
+      </c>
+      <c r="C81" t="n">
+        <v>200</v>
+      </c>
+      <c r="D81" t="n">
+        <v>200</v>
+      </c>
+      <c r="E81" t="n">
+        <v>200</v>
+      </c>
+      <c r="F81" t="n">
+        <v>51.5098</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-29399.49929999999</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>201</v>
+      </c>
+      <c r="C82" t="n">
+        <v>201</v>
+      </c>
+      <c r="D82" t="n">
+        <v>201</v>
+      </c>
+      <c r="E82" t="n">
+        <v>201</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4156.7904</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-25242.70889999999</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>202</v>
+      </c>
+      <c r="C83" t="n">
+        <v>202</v>
+      </c>
+      <c r="D83" t="n">
+        <v>202</v>
+      </c>
+      <c r="E83" t="n">
+        <v>202</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4299.349</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-20943.35989999999</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>202</v>
+      </c>
+      <c r="C84" t="n">
+        <v>202</v>
+      </c>
+      <c r="D84" t="n">
+        <v>202</v>
+      </c>
+      <c r="E84" t="n">
+        <v>202</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7351.887</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-20943.35989999999</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>202</v>
+      </c>
+      <c r="C85" t="n">
+        <v>202</v>
+      </c>
+      <c r="D85" t="n">
+        <v>202</v>
+      </c>
+      <c r="E85" t="n">
+        <v>202</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3134.2252</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-20943.35989999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>202</v>
+      </c>
+      <c r="C86" t="n">
+        <v>202</v>
+      </c>
+      <c r="D86" t="n">
+        <v>202</v>
+      </c>
+      <c r="E86" t="n">
+        <v>202</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1242.3859</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-20943.35989999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>202</v>
+      </c>
+      <c r="C87" t="n">
+        <v>202</v>
+      </c>
+      <c r="D87" t="n">
+        <v>202</v>
+      </c>
+      <c r="E87" t="n">
+        <v>202</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7.1534</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-20943.35989999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>203</v>
+      </c>
+      <c r="C88" t="n">
+        <v>203</v>
+      </c>
+      <c r="D88" t="n">
+        <v>203</v>
+      </c>
+      <c r="E88" t="n">
+        <v>203</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9640.4614</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>203</v>
+      </c>
+      <c r="C89" t="n">
+        <v>203</v>
+      </c>
+      <c r="D89" t="n">
+        <v>203</v>
+      </c>
+      <c r="E89" t="n">
+        <v>203</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7808.7743</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>203</v>
+      </c>
+      <c r="C90" t="n">
+        <v>203</v>
+      </c>
+      <c r="D90" t="n">
+        <v>203</v>
+      </c>
+      <c r="E90" t="n">
+        <v>203</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3870.9472</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>203</v>
+      </c>
+      <c r="C91" t="n">
+        <v>203</v>
+      </c>
+      <c r="D91" t="n">
+        <v>203</v>
+      </c>
+      <c r="E91" t="n">
+        <v>203</v>
+      </c>
+      <c r="F91" t="n">
+        <v>8363.944100000001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>203</v>
+      </c>
+      <c r="C92" t="n">
+        <v>203</v>
+      </c>
+      <c r="D92" t="n">
+        <v>203</v>
+      </c>
+      <c r="E92" t="n">
+        <v>203</v>
+      </c>
+      <c r="F92" t="n">
+        <v>737.6794</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>203</v>
+      </c>
+      <c r="C93" t="n">
+        <v>203</v>
+      </c>
+      <c r="D93" t="n">
+        <v>203</v>
+      </c>
+      <c r="E93" t="n">
+        <v>203</v>
+      </c>
+      <c r="F93" t="n">
+        <v>339.6162</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-11302.89849999999</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>202</v>
+      </c>
+      <c r="C94" t="n">
+        <v>202</v>
+      </c>
+      <c r="D94" t="n">
+        <v>202</v>
+      </c>
+      <c r="E94" t="n">
+        <v>202</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1090.3983</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-12393.29679999999</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>204</v>
       </c>
-      <c r="C55" t="n">
-        <v>200</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C95" t="n">
         <v>204</v>
       </c>
-      <c r="E55" t="n">
-        <v>200</v>
-      </c>
-      <c r="F55" t="n">
-        <v>287.7968</v>
-      </c>
-      <c r="G55" t="n">
-        <v>201.3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>38</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L55" t="n">
-        <v>204.1</v>
-      </c>
-      <c r="M55" t="n">
-        <v>204.35</v>
-      </c>
-      <c r="N55" t="n">
-        <v>203.7666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+      <c r="D95" t="n">
+        <v>204</v>
+      </c>
+      <c r="E95" t="n">
+        <v>204</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>204</v>
+      </c>
+      <c r="C96" t="n">
+        <v>204</v>
+      </c>
+      <c r="D96" t="n">
+        <v>204</v>
+      </c>
+      <c r="E96" t="n">
+        <v>204</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1282.7892</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>204</v>
+      </c>
+      <c r="C97" t="n">
+        <v>204</v>
+      </c>
+      <c r="D97" t="n">
+        <v>204</v>
+      </c>
+      <c r="E97" t="n">
+        <v>204</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2338.8088</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>204</v>
+      </c>
+      <c r="C98" t="n">
+        <v>204</v>
+      </c>
+      <c r="D98" t="n">
+        <v>204</v>
+      </c>
+      <c r="E98" t="n">
+        <v>204</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.0686</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>204</v>
+      </c>
+      <c r="C99" t="n">
+        <v>204</v>
+      </c>
+      <c r="D99" t="n">
+        <v>204</v>
+      </c>
+      <c r="E99" t="n">
+        <v>204</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1636.2303</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>204</v>
+      </c>
+      <c r="C100" t="n">
+        <v>204</v>
+      </c>
+      <c r="D100" t="n">
+        <v>204</v>
+      </c>
+      <c r="E100" t="n">
+        <v>204</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3703.0425</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-12391.29679999999</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>205</v>
+      </c>
+      <c r="C101" t="n">
+        <v>205</v>
+      </c>
+      <c r="D101" t="n">
+        <v>205</v>
+      </c>
+      <c r="E101" t="n">
+        <v>205</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5821.8776</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-6569.419199999989</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>206</v>
+      </c>
+      <c r="C102" t="n">
+        <v>206</v>
+      </c>
+      <c r="D102" t="n">
+        <v>206</v>
+      </c>
+      <c r="E102" t="n">
+        <v>206</v>
+      </c>
+      <c r="F102" t="n">
+        <v>57.1504</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-6512.268799999989</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>206</v>
+      </c>
+      <c r="C103" t="n">
+        <v>206</v>
+      </c>
+      <c r="D103" t="n">
+        <v>206</v>
+      </c>
+      <c r="E103" t="n">
+        <v>206</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21.5631</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-6512.268799999989</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,22 +979,15 @@
         <v>-25190.1918</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>193</v>
-      </c>
-      <c r="K18" t="n">
-        <v>193</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1074,22 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>193</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1114,26 +1045,15 @@
         <v>-25196.1768</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>192</v>
-      </c>
-      <c r="K20" t="n">
-        <v>193</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,22 +1111,15 @@
         <v>-24824.2254</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>192</v>
-      </c>
-      <c r="K22" t="n">
-        <v>192</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,26 +1144,15 @@
         <v>-24822.2254</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>191</v>
-      </c>
-      <c r="K23" t="n">
-        <v>192</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1278,26 +1177,15 @@
         <v>-24822.2254</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>195</v>
-      </c>
-      <c r="K24" t="n">
-        <v>192</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1324,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1396,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1468,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,22 +1375,15 @@
         <v>-21840.27499999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>193</v>
-      </c>
-      <c r="K30" t="n">
-        <v>193</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1544,22 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>193</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1584,26 +1441,15 @@
         <v>-21849.79979999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>193</v>
-      </c>
-      <c r="K32" t="n">
-        <v>193</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1630,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1702,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1738,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1774,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1810,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1846,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1880,22 +1705,15 @@
         <v>-24625.39979999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>190</v>
-      </c>
-      <c r="K40" t="n">
-        <v>190</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1922,22 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>190</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,22 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>190</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2006,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2042,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2078,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2114,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2150,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2184,22 +1969,19 @@
         <v>-28112.30559999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J48" t="n">
         <v>195</v>
       </c>
-      <c r="K48" t="n">
-        <v>195</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2224,26 +2006,23 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="J49" t="n">
         <v>195</v>
       </c>
-      <c r="K49" t="n">
-        <v>195</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2268,26 +2047,23 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="J50" t="n">
-        <v>197</v>
-      </c>
-      <c r="K50" t="n">
-        <v>195</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>195</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2314,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2350,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2386,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2422,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2458,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2492,18 +2253,19 @@
         <v>-27990.30559999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>197</v>
+      </c>
+      <c r="J56" t="n">
+        <v>197</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2528,18 +2290,23 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>197</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2564,18 +2331,23 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J58" t="n">
+        <v>197</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2602,16 +2374,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>197</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2636,18 +2411,23 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J60" t="n">
+        <v>197</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2674,16 +2454,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>197</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,18 +2491,23 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="J62" t="n">
+        <v>197</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2744,18 +2532,23 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>196</v>
+      </c>
+      <c r="J63" t="n">
+        <v>197</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2780,18 +2573,23 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J64" t="n">
+        <v>197</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2816,18 +2614,23 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J65" t="n">
+        <v>197</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2852,18 +2655,23 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="J66" t="n">
+        <v>197</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2890,16 +2698,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>197</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2926,16 +2737,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>197</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2962,16 +2776,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>197</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2996,18 +2813,23 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="J70" t="n">
+        <v>197</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3032,18 +2854,23 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J71" t="n">
+        <v>197</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3068,18 +2895,21 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>197</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3104,18 +2934,23 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J73" t="n">
+        <v>197</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,18 +2975,23 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J74" t="n">
+        <v>197</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3178,16 +3018,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>197</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3212,18 +3055,23 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J76" t="n">
+        <v>197</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3248,18 +3096,23 @@
         <v>-29061.94529999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="J77" t="n">
+        <v>197</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3284,18 +3137,21 @@
         <v>-29869.21929999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>197</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3320,18 +3176,21 @@
         <v>-29566.21929999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>197</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3356,18 +3215,21 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>197</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3392,18 +3254,23 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>197</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3428,18 +3295,23 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="J82" t="n">
+        <v>197</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3466,16 +3338,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>197</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,18 +3375,21 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>197</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3536,18 +3414,21 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3572,18 +3453,21 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>197</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3608,18 +3492,21 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>197</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3644,18 +3531,21 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>197</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3680,18 +3570,21 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>197</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.025456852791878</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3716,18 +3609,15 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3752,18 +3642,15 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,18 +3675,15 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3824,18 +3708,15 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3860,18 +3741,15 @@
         <v>-12393.29679999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3896,18 +3774,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,18 +3807,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3968,18 +3840,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4004,18 +3873,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4040,18 +3906,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4076,18 +3939,15 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4112,18 +3972,15 @@
         <v>-6569.419199999989</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4148,18 +4005,15 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4184,20 +4038,17 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,10 +1012,14 @@
         <v>-25190.1918</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>192</v>
+      </c>
+      <c r="J19" t="n">
+        <v>192</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>192</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1088,19 @@
         <v>-23196.1768</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>191</v>
+      </c>
+      <c r="J21" t="n">
+        <v>192</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1144,10 +1162,14 @@
         <v>-24822.2254</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>191</v>
+      </c>
+      <c r="J23" t="n">
+        <v>191</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1180,8 +1202,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>191</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1241,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>191</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1474,10 +1508,14 @@
         <v>-21849.79979999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>193</v>
+      </c>
+      <c r="J33" t="n">
+        <v>193</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1510,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>193</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1584,19 @@
         <v>-22847.79979999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>195</v>
+      </c>
+      <c r="J35" t="n">
+        <v>193</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1969,7 +2021,7 @@
         <v>-28112.30559999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>195</v>
@@ -2006,7 +2058,7 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>195</v>
@@ -2047,11 +2099,9 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>195</v>
       </c>
@@ -2253,14 +2303,10 @@
         <v>-27990.30559999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>197</v>
-      </c>
-      <c r="J56" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2290,19 +2336,11 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>196</v>
-      </c>
-      <c r="J57" t="n">
-        <v>197</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2331,19 +2369,11 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>198</v>
-      </c>
-      <c r="J58" t="n">
-        <v>197</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2405,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>197</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2411,19 +2435,11 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>198</v>
-      </c>
-      <c r="J60" t="n">
-        <v>197</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2455,14 +2471,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>197</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2491,19 +2501,11 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>196</v>
-      </c>
-      <c r="J62" t="n">
-        <v>197</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2532,19 +2534,11 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>196</v>
-      </c>
-      <c r="J63" t="n">
-        <v>197</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2573,19 +2567,11 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>198</v>
-      </c>
-      <c r="J64" t="n">
-        <v>197</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2614,19 +2600,11 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>198</v>
-      </c>
-      <c r="J65" t="n">
-        <v>197</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2655,19 +2633,11 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>199</v>
-      </c>
-      <c r="J66" t="n">
-        <v>197</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2669,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>197</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2702,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>197</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2774,17 +2732,15 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>199</v>
+      </c>
       <c r="J69" t="n">
-        <v>197</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2813,17 +2769,17 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>199</v>
       </c>
       <c r="J70" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2854,17 +2810,17 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>200</v>
       </c>
       <c r="J71" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2897,15 +2853,13 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>199</v>
+      </c>
       <c r="J72" t="n">
-        <v>197</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2934,17 +2888,17 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>200</v>
       </c>
       <c r="J73" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2975,17 +2929,17 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>200</v>
       </c>
       <c r="J74" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3019,14 +2973,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>197</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3055,19 +3003,15 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>198</v>
       </c>
       <c r="J76" t="n">
-        <v>197</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3096,17 +3040,17 @@
         <v>-29061.94529999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>198</v>
       </c>
       <c r="J77" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3139,13 +3083,15 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>200</v>
+      </c>
       <c r="J78" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3178,15 +3124,13 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>198</v>
+      </c>
       <c r="J79" t="n">
-        <v>197</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3217,13 +3161,15 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>199</v>
+      </c>
       <c r="J80" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3254,17 +3200,17 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>200</v>
       </c>
       <c r="J81" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3295,19 +3241,15 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>200</v>
       </c>
       <c r="J82" t="n">
-        <v>197</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3336,15 +3278,17 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>201</v>
+      </c>
       <c r="J83" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3377,13 +3321,15 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>202</v>
+      </c>
       <c r="J84" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3416,15 +3362,13 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>202</v>
+      </c>
       <c r="J85" t="n">
-        <v>197</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3455,13 +3399,15 @@
       <c r="H86" t="n">
         <v>1</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>202</v>
+      </c>
       <c r="J86" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3494,13 +3440,15 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>202</v>
+      </c>
       <c r="J87" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3533,15 +3481,13 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>202</v>
+      </c>
       <c r="J88" t="n">
-        <v>197</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3570,19 +3516,19 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.025456852791878</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
     </row>
@@ -3609,11 +3555,17 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>202</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3642,7 +3594,7 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3675,7 +3627,7 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3708,7 +3660,7 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3741,7 +3693,7 @@
         <v>-12393.29679999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3774,7 +3726,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3807,7 +3759,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3840,7 +3792,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3873,7 +3825,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3906,7 +3858,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3939,7 +3891,7 @@
         <v>-12391.29679999999</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3972,7 +3924,7 @@
         <v>-6569.419199999989</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4005,7 +3957,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4038,7 +3990,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4049,6 +4001,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,14 +1012,10 @@
         <v>-25190.1918</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>192</v>
-      </c>
-      <c r="J19" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1052,125 +1048,125 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>192</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="C21" t="n">
+        <v>192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>192</v>
+      </c>
+      <c r="E21" t="n">
+        <v>192</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-23196.1768</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>191</v>
+      </c>
+      <c r="J21" t="n">
+        <v>191</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>191</v>
+      </c>
+      <c r="C22" t="n">
+        <v>191</v>
+      </c>
+      <c r="D22" t="n">
+        <v>191</v>
+      </c>
+      <c r="E22" t="n">
+        <v>191</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1628.0486</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-24824.2254</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>191</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>192</v>
-      </c>
-      <c r="C21" t="n">
-        <v>192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>192</v>
-      </c>
-      <c r="E21" t="n">
-        <v>192</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-23196.1768</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>195</v>
+      </c>
+      <c r="C23" t="n">
+        <v>195</v>
+      </c>
+      <c r="D23" t="n">
+        <v>195</v>
+      </c>
+      <c r="E23" t="n">
+        <v>195</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-24822.2254</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>191</v>
       </c>
-      <c r="J21" t="n">
-        <v>192</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J23" t="n">
+        <v>191</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>191</v>
-      </c>
-      <c r="C22" t="n">
-        <v>191</v>
-      </c>
-      <c r="D22" t="n">
-        <v>191</v>
-      </c>
-      <c r="E22" t="n">
-        <v>191</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1628.0486</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-24824.2254</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>195</v>
-      </c>
-      <c r="C23" t="n">
-        <v>195</v>
-      </c>
-      <c r="D23" t="n">
-        <v>195</v>
-      </c>
-      <c r="E23" t="n">
-        <v>195</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-24822.2254</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>191</v>
-      </c>
-      <c r="J23" t="n">
-        <v>191</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>191</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1241,14 +1231,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>191</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1508,14 +1492,10 @@
         <v>-21849.79979999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>193</v>
-      </c>
-      <c r="J33" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1548,14 +1528,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>193</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1584,19 +1558,11 @@
         <v>-22847.79979999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>195</v>
-      </c>
-      <c r="J35" t="n">
-        <v>193</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -2021,14 +1987,10 @@
         <v>-28112.30559999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>195</v>
-      </c>
-      <c r="J48" t="n">
-        <v>195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2058,19 +2020,11 @@
         <v>-27416.30559999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>195</v>
-      </c>
-      <c r="J49" t="n">
-        <v>195</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2102,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>195</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2534,10 +2482,14 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>196</v>
+      </c>
+      <c r="J63" t="n">
+        <v>196</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2570,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>196</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2603,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>196</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2696,10 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>199</v>
-      </c>
-      <c r="J69" t="n">
-        <v>199</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2769,19 +2729,11 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>199</v>
-      </c>
-      <c r="J70" t="n">
-        <v>199</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2810,19 +2762,11 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>200</v>
-      </c>
-      <c r="J71" t="n">
-        <v>199</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2851,14 +2795,10 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>199</v>
-      </c>
-      <c r="J72" t="n">
-        <v>199</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2888,19 +2828,11 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>200</v>
-      </c>
-      <c r="J73" t="n">
-        <v>199</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2929,19 +2861,11 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>200</v>
-      </c>
-      <c r="J74" t="n">
-        <v>199</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3003,14 +2927,10 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>198</v>
-      </c>
-      <c r="J76" t="n">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -3048,11 +2968,7 @@
       <c r="J77" t="n">
         <v>198</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3122,15 +3038,17 @@
         <v>-29566.21929999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>198</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>198</v>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3159,19 +3077,11 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>199</v>
-      </c>
-      <c r="J80" t="n">
-        <v>198</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3200,19 +3110,11 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>200</v>
-      </c>
-      <c r="J81" t="n">
-        <v>198</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +3143,10 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>200</v>
-      </c>
-      <c r="J82" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3278,19 +3176,11 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>201</v>
-      </c>
-      <c r="J83" t="n">
-        <v>200</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3319,19 +3209,11 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>202</v>
-      </c>
-      <c r="J84" t="n">
-        <v>200</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +3242,10 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>202</v>
-      </c>
-      <c r="J85" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3397,19 +3275,11 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>202</v>
-      </c>
-      <c r="J86" t="n">
-        <v>202</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3438,19 +3308,11 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>202</v>
-      </c>
-      <c r="J87" t="n">
-        <v>202</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3479,14 +3341,10 @@
         <v>-11302.89849999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>202</v>
-      </c>
-      <c r="J88" t="n">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3519,14 +3377,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>202</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3558,14 +3410,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>202</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3957,7 +3803,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3990,7 +3836,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4001,6 +3847,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -1078,14 +1078,10 @@
         <v>-23196.1768</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>191</v>
-      </c>
-      <c r="J21" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1118,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>191</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1154,19 +1144,11 @@
         <v>-24822.2254</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>191</v>
-      </c>
-      <c r="J23" t="n">
-        <v>191</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -2317,10 +2299,14 @@
         <v>-27960.30559999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>198</v>
+      </c>
+      <c r="J58" t="n">
+        <v>198</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2353,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>198</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2386,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>198</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2414,19 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>198</v>
+      </c>
+      <c r="J61" t="n">
+        <v>198</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2455,19 @@
         <v>-29408.12639999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>196</v>
+      </c>
+      <c r="J62" t="n">
+        <v>198</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2488,9 +2502,13 @@
         <v>196</v>
       </c>
       <c r="J63" t="n">
-        <v>196</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>198</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2519,15 +2537,17 @@
         <v>-29407.12639999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>198</v>
+      </c>
       <c r="J64" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2558,15 +2578,17 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>198</v>
+      </c>
       <c r="J65" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2600,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>198</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +2661,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>198</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>198</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2736,17 @@
         <v>-29406.12639999999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>198</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2775,19 @@
         <v>-29066.78139999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>199</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2816,19 @@
         <v>-29071.98969999999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>200</v>
+      </c>
+      <c r="J71" t="n">
+        <v>198</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2857,19 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>199</v>
+      </c>
+      <c r="J72" t="n">
+        <v>198</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2898,19 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>200</v>
+      </c>
+      <c r="J73" t="n">
+        <v>198</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2939,19 @@
         <v>-29061.81399999999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>200</v>
+      </c>
+      <c r="J74" t="n">
+        <v>198</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2980,19 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>200</v>
+      </c>
+      <c r="J75" t="n">
+        <v>198</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3021,19 @@
         <v>-29062.94529999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>198</v>
+      </c>
+      <c r="J76" t="n">
+        <v>198</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2968,7 +3070,11 @@
       <c r="J77" t="n">
         <v>198</v>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3007,7 +3113,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3038,15 +3144,17 @@
         <v>-29566.21929999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>198</v>
+      </c>
       <c r="J79" t="n">
         <v>198</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3077,11 +3185,19 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>199</v>
+      </c>
+      <c r="J80" t="n">
+        <v>198</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3110,11 +3226,19 @@
         <v>-29399.49929999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>198</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3143,11 +3267,19 @@
         <v>-25242.70889999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>200</v>
+      </c>
+      <c r="J82" t="n">
+        <v>198</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3176,11 +3308,19 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>201</v>
+      </c>
+      <c r="J83" t="n">
+        <v>198</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3209,11 +3349,19 @@
         <v>-20943.35989999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>202</v>
+      </c>
+      <c r="J84" t="n">
+        <v>198</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3245,8 +3393,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>198</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3278,8 +3432,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>198</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3311,8 +3471,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>198</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3344,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>198</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3377,8 +3549,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>198</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3410,8 +3588,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>198</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3443,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>198</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3476,8 +3666,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>198</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3509,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>198</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3542,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>198</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3575,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>198</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3608,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>198</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3641,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>198</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3674,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>198</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3707,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>198</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3740,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>198</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3773,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>198</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3803,13 +4053,19 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>198</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>1.035404040404041</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -3836,7 +4092,7 @@
         <v>-6512.268799999989</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest STEEM.xlsx
+++ b/BackTest/2019-10-18 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2539423.7193</v>
       </c>
       <c r="G2" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2536968.75</v>
       </c>
       <c r="G3" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2565006</v>
       </c>
       <c r="G4" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>874000</v>
       </c>
       <c r="G5" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>21372.9523</v>
       </c>
       <c r="G6" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>911800</v>
       </c>
       <c r="G7" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2566200</v>
       </c>
       <c r="G8" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2585000</v>
       </c>
       <c r="G9" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2519200</v>
       </c>
       <c r="G10" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2538000</v>
       </c>
       <c r="G11" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2491000</v>
       </c>
       <c r="G12" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2519200</v>
       </c>
       <c r="G13" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2500400</v>
       </c>
       <c r="G14" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2556800</v>
       </c>
       <c r="G15" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1168363</v>
       </c>
       <c r="G16" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>429.4</v>
       </c>
       <c r="G17" t="n">
-        <v>-17401.49</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7788.7018</v>
       </c>
       <c r="G18" t="n">
-        <v>-25190.1918</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-25190.1918</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5.985</v>
       </c>
       <c r="G20" t="n">
-        <v>-25196.1768</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,19 @@
         <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>-23196.1768</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="I21" t="n">
+        <v>191</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1047,23 @@
         <v>1628.0486</v>
       </c>
       <c r="G22" t="n">
-        <v>-24824.2254</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>192</v>
+      </c>
+      <c r="I22" t="n">
+        <v>191</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1085,23 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>-24822.2254</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="I23" t="n">
+        <v>191</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1123,19 @@
         <v>19.0974</v>
       </c>
       <c r="G24" t="n">
-        <v>-24822.2254</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>195</v>
+      </c>
+      <c r="I24" t="n">
+        <v>195</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1157,21 @@
         <v>9.524800000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-24831.75019999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>195</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1193,21 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-24830.75019999999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>195</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1229,15 @@
         <v>2.4102</v>
       </c>
       <c r="G27" t="n">
-        <v>-24830.75019999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1259,15 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>-24830.75019999999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1289,15 @@
         <v>9.524800000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-24840.27499999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,15 @@
         <v>3000</v>
       </c>
       <c r="G30" t="n">
-        <v>-21840.27499999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1349,15 @@
         <v>9.524800000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-21849.79979999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1379,15 @@
         <v>466.321</v>
       </c>
       <c r="G32" t="n">
-        <v>-21849.79979999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1409,15 @@
         <v>347.3005</v>
       </c>
       <c r="G33" t="n">
-        <v>-21849.79979999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,15 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>-21847.79979999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,15 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>-22847.79979999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1499,15 @@
         <v>15.4</v>
       </c>
       <c r="G36" t="n">
-        <v>-22832.39979999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1529,15 @@
         <v>382.4964</v>
       </c>
       <c r="G37" t="n">
-        <v>-22832.39979999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1559,15 @@
         <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>-22856.39979999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1589,15 @@
         <v>1771</v>
       </c>
       <c r="G39" t="n">
-        <v>-24627.39979999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1619,15 @@
         <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>-24625.39979999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1649,15 @@
         <v>725.7689</v>
       </c>
       <c r="G41" t="n">
-        <v>-23899.63089999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1679,15 @@
         <v>3399.394</v>
       </c>
       <c r="G42" t="n">
-        <v>-23899.63089999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1709,15 @@
         <v>127.4645</v>
       </c>
       <c r="G43" t="n">
-        <v>-23899.63089999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1739,15 @@
         <v>473</v>
       </c>
       <c r="G44" t="n">
-        <v>-23899.63089999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1769,15 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-23898.63089999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1799,15 @@
         <v>1256.1363</v>
       </c>
       <c r="G46" t="n">
-        <v>-25154.76719999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1829,15 @@
         <v>2957.5384</v>
       </c>
       <c r="G47" t="n">
-        <v>-28112.30559999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1859,15 @@
         <v>42.4616</v>
       </c>
       <c r="G48" t="n">
-        <v>-28112.30559999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1889,15 @@
         <v>696</v>
       </c>
       <c r="G49" t="n">
-        <v>-27416.30559999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1919,15 @@
         <v>255.2131</v>
       </c>
       <c r="G50" t="n">
-        <v>-27416.30559999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1949,15 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>-27416.30559999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1979,15 @@
         <v>40.60913705</v>
       </c>
       <c r="G52" t="n">
-        <v>-27416.30559999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2009,15 @@
         <v>505</v>
       </c>
       <c r="G53" t="n">
-        <v>-27921.30559999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2039,15 @@
         <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>-27890.30559999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2069,15 @@
         <v>52.5989</v>
       </c>
       <c r="G55" t="n">
-        <v>-27890.30559999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2099,15 @@
         <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>-27990.30559999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2129,15 @@
         <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>-27960.30559999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,22 +2159,15 @@
         <v>424.3434</v>
       </c>
       <c r="G58" t="n">
-        <v>-27960.30559999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>198</v>
-      </c>
-      <c r="J58" t="n">
-        <v>198</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2333,24 +2189,15 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-27960.30559999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>198</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2372,24 +2219,15 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-27960.30559999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>198</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,26 +2249,15 @@
         <v>1447.8208</v>
       </c>
       <c r="G61" t="n">
-        <v>-29408.12639999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>198</v>
-      </c>
-      <c r="J61" t="n">
-        <v>198</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2452,26 +2279,15 @@
         <v>53.1792</v>
       </c>
       <c r="G62" t="n">
-        <v>-29408.12639999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>196</v>
-      </c>
-      <c r="J62" t="n">
-        <v>198</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2493,26 +2309,15 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-29407.12639999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>196</v>
-      </c>
-      <c r="J63" t="n">
-        <v>198</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2534,26 +2339,15 @@
         <v>1633.1882</v>
       </c>
       <c r="G64" t="n">
-        <v>-29407.12639999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>198</v>
-      </c>
-      <c r="J64" t="n">
-        <v>198</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2575,26 +2369,15 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>-29406.12639999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>198</v>
-      </c>
-      <c r="J65" t="n">
-        <v>198</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2616,24 +2399,15 @@
         <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>-29406.12639999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>198</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2655,24 +2429,15 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>-29406.12639999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>198</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2694,24 +2459,15 @@
         <v>474.9902</v>
       </c>
       <c r="G68" t="n">
-        <v>-29406.12639999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>198</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2733,24 +2489,15 @@
         <v>5000</v>
       </c>
       <c r="G69" t="n">
-        <v>-29406.12639999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>198</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2772,26 +2519,15 @@
         <v>339.345</v>
       </c>
       <c r="G70" t="n">
-        <v>-29066.78139999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>199</v>
-      </c>
-      <c r="J70" t="n">
-        <v>198</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2813,26 +2549,15 @@
         <v>5.2083</v>
       </c>
       <c r="G71" t="n">
-        <v>-29071.98969999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>200</v>
-      </c>
-      <c r="J71" t="n">
-        <v>198</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2854,26 +2579,15 @@
         <v>10.1757</v>
       </c>
       <c r="G72" t="n">
-        <v>-29061.81399999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>199</v>
-      </c>
-      <c r="J72" t="n">
-        <v>198</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2895,26 +2609,15 @@
         <v>19.5194</v>
       </c>
       <c r="G73" t="n">
-        <v>-29061.81399999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>200</v>
-      </c>
-      <c r="J73" t="n">
-        <v>198</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2936,26 +2639,15 @@
         <v>481.2232</v>
       </c>
       <c r="G74" t="n">
-        <v>-29061.81399999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>200</v>
-      </c>
-      <c r="J74" t="n">
-        <v>198</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2977,26 +2669,15 @@
         <v>1.1313</v>
       </c>
       <c r="G75" t="n">
-        <v>-29062.94529999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>200</v>
-      </c>
-      <c r="J75" t="n">
-        <v>198</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3018,26 +2699,15 @@
         <v>218.2297</v>
       </c>
       <c r="G76" t="n">
-        <v>-29062.94529999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>198</v>
-      </c>
-      <c r="J76" t="n">
-        <v>198</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3059,26 +2729,15 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-29061.94529999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>198</v>
-      </c>
-      <c r="J77" t="n">
-        <v>198</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3100,26 +2759,15 @@
         <v>807.274</v>
       </c>
       <c r="G78" t="n">
-        <v>-29869.21929999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>200</v>
-      </c>
-      <c r="J78" t="n">
-        <v>198</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3141,26 +2789,15 @@
         <v>303</v>
       </c>
       <c r="G79" t="n">
-        <v>-29566.21929999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>198</v>
-      </c>
-      <c r="J79" t="n">
-        <v>198</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3182,26 +2819,15 @@
         <v>166.72</v>
       </c>
       <c r="G80" t="n">
-        <v>-29399.49929999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>199</v>
-      </c>
-      <c r="J80" t="n">
-        <v>198</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3223,26 +2849,15 @@
         <v>51.5098</v>
       </c>
       <c r="G81" t="n">
-        <v>-29399.49929999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>200</v>
-      </c>
-      <c r="J81" t="n">
-        <v>198</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3264,26 +2879,15 @@
         <v>4156.7904</v>
       </c>
       <c r="G82" t="n">
-        <v>-25242.70889999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>200</v>
-      </c>
-      <c r="J82" t="n">
-        <v>198</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3305,26 +2909,15 @@
         <v>4299.349</v>
       </c>
       <c r="G83" t="n">
-        <v>-20943.35989999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>201</v>
-      </c>
-      <c r="J83" t="n">
-        <v>198</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3346,26 +2939,15 @@
         <v>7351.887</v>
       </c>
       <c r="G84" t="n">
-        <v>-20943.35989999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>202</v>
-      </c>
-      <c r="J84" t="n">
-        <v>198</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3387,24 +2969,15 @@
         <v>3134.2252</v>
       </c>
       <c r="G85" t="n">
-        <v>-20943.35989999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>198</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3426,24 +2999,15 @@
         <v>1242.3859</v>
       </c>
       <c r="G86" t="n">
-        <v>-20943.35989999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>198</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3465,24 +3029,15 @@
         <v>7.1534</v>
       </c>
       <c r="G87" t="n">
-        <v>-20943.35989999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>198</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3504,24 +3059,15 @@
         <v>9640.4614</v>
       </c>
       <c r="G88" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>198</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3543,24 +3089,15 @@
         <v>7808.7743</v>
       </c>
       <c r="G89" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>198</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3582,24 +3119,15 @@
         <v>3870.9472</v>
       </c>
       <c r="G90" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>198</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3621,24 +3149,15 @@
         <v>8363.944100000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>198</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3660,24 +3179,15 @@
         <v>737.6794</v>
       </c>
       <c r="G92" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>198</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3699,24 +3209,15 @@
         <v>339.6162</v>
       </c>
       <c r="G93" t="n">
-        <v>-11302.89849999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>198</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3738,24 +3239,15 @@
         <v>1090.3983</v>
       </c>
       <c r="G94" t="n">
-        <v>-12393.29679999999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>198</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3777,24 +3269,15 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>198</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3816,24 +3299,15 @@
         <v>1282.7892</v>
       </c>
       <c r="G96" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>198</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3855,24 +3329,15 @@
         <v>2338.8088</v>
       </c>
       <c r="G97" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>198</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3894,24 +3359,15 @@
         <v>8.0686</v>
       </c>
       <c r="G98" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>198</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3933,24 +3389,15 @@
         <v>1636.2303</v>
       </c>
       <c r="G99" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>198</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3972,24 +3419,15 @@
         <v>3703.0425</v>
       </c>
       <c r="G100" t="n">
-        <v>-12391.29679999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>198</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4011,24 +3449,15 @@
         <v>5821.8776</v>
       </c>
       <c r="G101" t="n">
-        <v>-6569.419199999989</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>198</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4050,24 +3479,15 @@
         <v>57.1504</v>
       </c>
       <c r="G102" t="n">
-        <v>-6512.268799999989</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>198</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1.035404040404041</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4089,18 +3509,15 @@
         <v>21.5631</v>
       </c>
       <c r="G103" t="n">
-        <v>-6512.268799999989</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
